--- a/output/2017-3.xlsx
+++ b/output/2017-3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="PI hours" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="dept hours" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PI hours" sheetId="1" r:id="rId1"/>
+    <sheet name="dept hours" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -23,34 +23,37 @@
     <t>hours</t>
   </si>
   <si>
+    <t>percentage</t>
+  </si>
+  <si>
     <t>dept</t>
   </si>
   <si>
     <t>Naira Hovakimyan</t>
   </si>
   <si>
+    <t>Romit Roy Choudhury</t>
+  </si>
+  <si>
+    <t>Lui Sha</t>
+  </si>
+  <si>
+    <t>Hae-Won Park</t>
+  </si>
+  <si>
+    <t>Sayan Mitra</t>
+  </si>
+  <si>
     <t>['ME', 'AE', 'CSL']</t>
   </si>
   <si>
-    <t>Romit Roy Choudhury</t>
-  </si>
-  <si>
     <t>['ECE', 'CSL']</t>
   </si>
   <si>
-    <t>Lui Sha</t>
-  </si>
-  <si>
     <t>['CS', 'CSL']</t>
   </si>
   <si>
-    <t>Hae-Won Park</t>
-  </si>
-  <si>
     <t>['ME', 'CSL']</t>
-  </si>
-  <si>
-    <t>Sayan Mitra</t>
   </si>
   <si>
     <t>CSL</t>
@@ -72,22 +75,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,26 +109,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -409,20 +425,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,160 +442,190 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="n">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="n">
+      <c r="D2">
+        <v>42.95302013422819</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>16.5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>22.14765100671141</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>18.79194630872483</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>9.395973154362416</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6.711409395973154</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="n">
+      <c r="D2">
+        <v>41.16022099447514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="n">
+      <c r="D3">
+        <v>21.54696132596685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>17.67955801104972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>21.5</v>
+      </c>
+      <c r="D5">
+        <v>11.87845303867403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="n">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
+      <c r="D6">
+        <v>7.734806629834254</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/2017-3.xlsx
+++ b/output/2017-3.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="PI hours" sheetId="1" r:id="rId1"/>
-    <sheet name="dept hours" sheetId="2" r:id="rId2"/>
+    <sheet name="department hours" sheetId="2" r:id="rId2"/>
+    <sheet name="unit(accumulative) hours" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -29,6 +30,9 @@
     <t>dept</t>
   </si>
   <si>
+    <t>app</t>
+  </si>
+  <si>
     <t>Naira Hovakimyan</t>
   </si>
   <si>
@@ -44,6 +48,15 @@
     <t>Sayan Mitra</t>
   </si>
   <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
     <t>['ME', 'AE', 'CSL']</t>
   </si>
   <si>
@@ -56,19 +69,13 @@
     <t>['ME', 'CSL']</t>
   </si>
   <si>
+    <t>unit(accumulative)</t>
+  </si>
+  <si>
     <t>CSL</t>
   </si>
   <si>
-    <t>ME</t>
-  </si>
-  <si>
     <t>AE</t>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
-    <t>CS</t>
   </si>
 </sst>
 </file>
@@ -426,13 +433,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,13 +452,16 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -460,15 +470,18 @@
         <v>42.95302013422819</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>16.5</v>
@@ -477,15 +490,18 @@
         <v>22.14765100671141</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -494,15 +510,18 @@
         <v>18.79194630872483</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -511,15 +530,18 @@
         <v>9.395973154362416</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -528,7 +550,10 @@
         <v>6.711409395973154</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -537,6 +562,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>52.34899328859061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>21.5</v>
+      </c>
+      <c r="D3">
+        <v>28.85906040268456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>18.79194630872483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -546,7 +637,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -560,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>74.5</v>
@@ -574,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>39</v>
@@ -588,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>32</v>
@@ -602,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>21.5</v>
@@ -616,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>14</v>

--- a/output/2017-3.xlsx
+++ b/output/2017-3.xlsx
@@ -10,13 +10,14 @@
     <sheet name="PI hours" sheetId="1" r:id="rId1"/>
     <sheet name="department hours" sheetId="2" r:id="rId2"/>
     <sheet name="unit(accumulative) hours" sheetId="3" r:id="rId3"/>
+    <sheet name="cfop hours" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -33,6 +34,9 @@
     <t>app</t>
   </si>
   <si>
+    <t>cfop</t>
+  </si>
+  <si>
     <t>Naira Hovakimyan</t>
   </si>
   <si>
@@ -69,6 +73,21 @@
     <t>['ME', 'CSL']</t>
   </si>
   <si>
+    <t>['cfop_NH']</t>
+  </si>
+  <si>
+    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
+  </si>
+  <si>
+    <t>['cfop_SHA']</t>
+  </si>
+  <si>
+    <t>['cfop_PARK']</t>
+  </si>
+  <si>
+    <t>['cfop_MITRA']</t>
+  </si>
+  <si>
     <t>unit(accumulative)</t>
   </si>
   <si>
@@ -76,6 +95,24 @@
   </si>
   <si>
     <t>AE</t>
+  </si>
+  <si>
+    <t>cfop_RRC</t>
+  </si>
+  <si>
+    <t>cfop_NH</t>
+  </si>
+  <si>
+    <t>cfop_CHOUDHURY</t>
+  </si>
+  <si>
+    <t>cfop_SHA</t>
+  </si>
+  <si>
+    <t>cfop_MITRA</t>
+  </si>
+  <si>
+    <t>cfop_PARK</t>
   </si>
 </sst>
 </file>
@@ -433,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,13 +492,16 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -470,18 +510,21 @@
         <v>42.95302013422819</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>16.5</v>
@@ -490,18 +533,21 @@
         <v>22.14765100671141</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -510,18 +556,21 @@
         <v>18.79194630872483</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -530,18 +579,21 @@
         <v>9.395973154362416</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -550,10 +602,13 @@
         <v>6.711409395973154</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -599,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>21.5</v>
@@ -613,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -637,7 +692,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -651,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>74.5</v>
@@ -665,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>39</v>
@@ -679,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>32</v>
@@ -693,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>21.5</v>
@@ -707,13 +762,121 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6">
         <v>7.734806629834254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>29.33333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>28.44444444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>16.5</v>
+      </c>
+      <c r="D4">
+        <v>14.66666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>12.44444444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>8.888888888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>6.222222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/output/2017-3.xlsx
+++ b/output/2017-3.xlsx
@@ -76,7 +76,7 @@
     <t>['cfop_NH']</t>
   </si>
   <si>
-    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
+    <t>['cfop_RRC', 'cfop_CHOUDHURY']</t>
   </si>
   <si>
     <t>['cfop_SHA']</t>
